--- a/所有项目源码教程链接.xlsx
+++ b/所有项目源码教程链接.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowWidth="27952" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="1080">
   <si>
     <t>序号</t>
   </si>
@@ -2495,6 +2495,780 @@
   </si>
   <si>
     <t>https://mbd.pub/o/bread/ZJ2UlZhq</t>
+  </si>
+  <si>
+    <t>啤酒瓶检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Beer-Bottle-Inspection-System2</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqTkpxr</t>
+  </si>
+  <si>
+    <t>交通标志检测系统源码分享 </t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Traffic-sign-detection2</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqUkp1x</t>
+  </si>
+  <si>
+    <t>环境监测设备检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Environmental-monitoring-equipment-testing</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqUkp5w</t>
+  </si>
+  <si>
+    <t>医生手写药品名称检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Doctor-handwriting-drug-name-testing</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqUk5xp</t>
+  </si>
+  <si>
+    <t>餐饮场景检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Catering-scene-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqUk51y</t>
+  </si>
+  <si>
+    <t>车牌号字符检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/License-plate-number-character-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqUk59w</t>
+  </si>
+  <si>
+    <t>交通场景交通标识检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Traffic-scene-traffic-sign-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqUlJ5p</t>
+  </si>
+  <si>
+    <t>文本识别检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Text-recognition-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqUlJ5s</t>
+  </si>
+  <si>
+    <t>交通场景检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Traffic-scene-detection-system</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqUlZdy</t>
+  </si>
+  <si>
+    <t>船舶类型检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Ship-type-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqUlZps</t>
+  </si>
+  <si>
+    <t>运动场景检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Sports-scene-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqUlp1x</t>
+  </si>
+  <si>
+    <t>人脸识别检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Facial-recognition-detection-system</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqUlp9r</t>
+  </si>
+  <si>
+    <t>冰箱食材检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Refrigerator-ingredient-testing</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqUl5dp</t>
+  </si>
+  <si>
+    <t>水果检测检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Fruit-detection-system</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqUl5ds</t>
+  </si>
+  <si>
+    <t>火灾报警器检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Fire-alarm-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqUl5dw</t>
+  </si>
+  <si>
+    <t>骑行安全检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Cycling-safety-inspection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqUmJtu</t>
+  </si>
+  <si>
+    <t>运动员球衣号码检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Athlete-jersey-number-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqUmJxq</t>
+  </si>
+  <si>
+    <t>动漫符号识别系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Anime-symbol-recognition</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqUmJ1r</t>
+  </si>
+  <si>
+    <t>Lego积木检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Lego-building-block-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqUmJ1y</t>
+  </si>
+  <si>
+    <t>电路板缺陷检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Circuit-board-defect-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqUmJ5u</t>
+  </si>
+  <si>
+    <t>车牌字符识别检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/License-plate-character-recognition-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqUmpdw</t>
+  </si>
+  <si>
+    <t>个人防护装备检测检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Personal-protective-equipment-testing</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqUmphu</t>
+  </si>
+  <si>
+    <t>工业阀门类型标识检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Industrial-valve-type-identification-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqUmpls</t>
+  </si>
+  <si>
+    <t>交通场景对象检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Traffic-scene-object-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqUmptq</t>
+  </si>
+  <si>
+    <t>矿洞场景目标检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Mine-scene-object-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqVkpZt</t>
+  </si>
+  <si>
+    <t>字母识别检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Letter-recognition-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqVkplr</t>
+  </si>
+  <si>
+    <t>人体部位检测检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Human-body-part-detection-and-testing</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqVkp9w</t>
+  </si>
+  <si>
+    <t>自然景观对象检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Natural-landscape-object-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqVlJdx</t>
+  </si>
+  <si>
+    <t>电子元件检测检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Electronic-component-testing-and-inspection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqVlJlv</t>
+  </si>
+  <si>
+    <t>人脸检测检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Facial-detection-system</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqVlJps</t>
+  </si>
+  <si>
+    <t>火灾烟雾检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Fire-and-smoke-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqVlJ9u</t>
+  </si>
+  <si>
+    <t>鱼类识别检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Fish-identification-and-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqVlZ9q</t>
+  </si>
+  <si>
+    <t>电子元件符号检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Electronic-component-symbol-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqVlZ9t</t>
+  </si>
+  <si>
+    <t>商标标识识别检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Trademark-identification-detection-system</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqVlZ9v</t>
+  </si>
+  <si>
+    <t>垃圾分类对象检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Garbage-classification-object-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqVlpdv</t>
+  </si>
+  <si>
+    <t>铁路低光环境中的树木检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Tree-detection-in-low-light-environments-on-railways</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqVlphs</t>
+  </si>
+  <si>
+    <t>水稻害虫检测检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Rice-pest-detection-and-testing</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqVlp5r</t>
+  </si>
+  <si>
+    <t>手势与标志识别检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Gesture-and-logo-recognition-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqVl5Zq</t>
+  </si>
+  <si>
+    <t>吸烟行为检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Smoking-behavior-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqVl5Zy</t>
+  </si>
+  <si>
+    <t>自然场景文本检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Natural-scene-text-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqVl5dr</t>
+  </si>
+  <si>
+    <t>PPT布局内容图片文本解析系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/PPT-layout-content-images-and-text-analysis</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqVl5dw</t>
+  </si>
+  <si>
+    <t>树木种类检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Tree-species-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqVmZxx</t>
+  </si>
+  <si>
+    <t>钢筋检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Reinforcement-Detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqVmZ1y</t>
+  </si>
+  <si>
+    <t>打哈欠驾驶检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Yawning-driving-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqVmZ9p</t>
+  </si>
+  <si>
+    <t>罐装食品检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Canned-food-testing</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqVmpZs</t>
+  </si>
+  <si>
+    <t>火源类型检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Fire-source-type-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqVmpZx</t>
+  </si>
+  <si>
+    <t>行人检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Pedestrian-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqWlZhu</t>
+  </si>
+  <si>
+    <t>钢筋类型检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Reinforcement-type-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqWlZls</t>
+  </si>
+  <si>
+    <t>草莓成熟度检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Strawberry-maturity-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqWlZlw</t>
+  </si>
+  <si>
+    <t>交通流量监测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Traffic-flow-monitoring</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqWlZxr</t>
+  </si>
+  <si>
+    <t>行人乱扔垃圾检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Pedestrian-littering-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqWlZxu</t>
+  </si>
+  <si>
+    <t>图表检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Chart-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqWlZ1p</t>
+  </si>
+  <si>
+    <t>电梯按钮检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Elevator-button-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqWmJxw</t>
+  </si>
+  <si>
+    <t>智慧交通执法巡检系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Intelligent-traffic-law-enforcement-inspection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqXkppq</t>
+  </si>
+  <si>
+    <t>材料表面缺陷检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Material-surface-defect-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqXkppy</t>
+  </si>
+  <si>
+    <t>试剂盒检测结果识别系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Identification-of-Test-Kit-Results</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqXlplr</t>
+  </si>
+  <si>
+    <t>橙子新鲜度检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Orange-freshness-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqXl51s</t>
+  </si>
+  <si>
+    <t>食品种类检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Food-type-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqXl59s</t>
+  </si>
+  <si>
+    <t>岩石检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Rock-Detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqXl59x</t>
+  </si>
+  <si>
+    <t>快递盒检测检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Express-box-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqXmJZp</t>
+  </si>
+  <si>
+    <t>洗涤标签类型检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Washing-label-type-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqXmJty</t>
+  </si>
+  <si>
+    <t>体育品牌标志检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Sports-brand-logo-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqXmJ5q</t>
+  </si>
+  <si>
+    <t>货架商品检测检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Shelf-product-inspection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqXm5Zy</t>
+  </si>
+  <si>
+    <t>交通灯和交通标志类型检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Traffic-light-and-traffic-sign-type-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqXm5dt</t>
+  </si>
+  <si>
+    <t>车牌识别检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/License-Plate-Recognition-and-Detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqYl5ps</t>
+  </si>
+  <si>
+    <t>安全防护装备检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Safety-protection-equipment-testing</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqYmZdu</t>
+  </si>
+  <si>
+    <t>斑马线识别系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Zebra-crossing-recognition</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqYmZlt</t>
+  </si>
+  <si>
+    <t>杂草检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Weed-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqYmpdr</t>
+  </si>
+  <si>
+    <t>手势操作控制系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Gesture-operation-control</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqYmptv</t>
+  </si>
+  <si>
+    <t>地质样本检测检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Geological-sample-testing</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqYmp5s</t>
+  </si>
+  <si>
+    <t>交通场景车辆姿态朝向检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Vehicle-attitude-orientation-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqYm5hq</t>
+  </si>
+  <si>
+    <t>握拳手势检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Fist-gesture-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqYm5xw</t>
+  </si>
+  <si>
+    <t>手写数字检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Handwritten-digit-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqYm59q</t>
+  </si>
+  <si>
+    <t>珠宝首饰类型检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Jewelry-type-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqZkplx</t>
+  </si>
+  <si>
+    <t>金属品质检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Metal-quality-inspection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqZkppt</t>
+  </si>
+  <si>
+    <t>奶糖检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Milk-sugar-testing</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqZkpts</t>
+  </si>
+  <si>
+    <t>鸡蛋检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Egg-Detecting</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqZkp1q</t>
+  </si>
+  <si>
+    <t>医疗器械检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Medical-Device-Testing</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqZmZZp</t>
+  </si>
+  <si>
+    <t>饮料品牌识别检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Beverage-brand-identification-testing</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqZmZxy</t>
+  </si>
+  <si>
+    <t>运动鞋检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Sports-shoe-inspection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqZmZ1u</t>
+  </si>
+  <si>
+    <t>服装尺码标签检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Clothing-size-label-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqZmZ1w</t>
+  </si>
+  <si>
+    <t>热成像行人检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Thermal-imaging-pedestrian-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqZmply</t>
+  </si>
+  <si>
+    <t>轨道列车触点电闪检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Track-train-contact-flashover-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqZmptp</t>
+  </si>
+  <si>
+    <t>人脸活体检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Facial-liveness-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqZmpxt</t>
+  </si>
+  <si>
+    <t>木材缺陷检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Wood-defect-detection</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqZm5ty</t>
+  </si>
+  <si>
+    <t>市场商品识别检测系统源码分享</t>
+  </si>
+  <si>
+    <t>https://gitee.com/qunmasj/Market-product-identification-and-testing</t>
+  </si>
+  <si>
+    <t>https://mbd.pub/o/bread/ZpqalJ9s</t>
   </si>
 </sst>
 </file>
@@ -2507,7 +3281,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2516,26 +3290,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0C0D0F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF191919"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF40485B"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -3004,137 +3759,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3147,20 +3902,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3473,2355 +4219,2355 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D276"/>
+  <dimension ref="A1:D362"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A277" sqref="A277:A300"/>
+      <selection pane="bottomLeft" activeCell="B364" sqref="B364"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.6363636363636" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.0909090909091" style="1" customWidth="1"/>
-    <col min="3" max="3" width="112.636363636364" style="1" customWidth="1"/>
-    <col min="4" max="4" width="101.090909090909" style="1" customWidth="1"/>
-    <col min="5" max="5" width="66.6363636363636" style="1" customWidth="1"/>
-    <col min="6" max="6" width="64.0909090909091" style="1" customWidth="1"/>
-    <col min="7" max="7" width="43.6363636363636" style="1" customWidth="1"/>
-    <col min="8" max="8" width="48.0909090909091" style="1" customWidth="1"/>
-    <col min="9" max="9" width="37.8181818181818" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6371681415929" style="1" customWidth="1"/>
+    <col min="2" max="2" width="77.3185840707965" style="1" customWidth="1"/>
+    <col min="3" max="3" width="79.8672566371681" style="1" customWidth="1"/>
+    <col min="4" max="4" width="101.088495575221" style="1" customWidth="1"/>
+    <col min="5" max="5" width="66.6371681415929" style="1" customWidth="1"/>
+    <col min="6" max="6" width="64.0884955752212" style="1" customWidth="1"/>
+    <col min="7" max="7" width="43.6371681415929" style="1" customWidth="1"/>
+    <col min="8" max="8" width="48.0884955752212" style="1" customWidth="1"/>
+    <col min="9" max="9" width="37.8141592920354" style="1" customWidth="1"/>
     <col min="10" max="14" width="9" style="1"/>
     <col min="15" max="21" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="15.75" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
+    <row r="2" ht="15.75" spans="1:4">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
+    <row r="3" ht="15.75" spans="1:4">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
+    <row r="4" ht="15.75" spans="1:4">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
+    <row r="5" ht="15.75" spans="1:4">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
+    <row r="6" ht="15.75" spans="1:4">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
+    <row r="7" ht="15.75" spans="1:4">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
+    <row r="8" ht="15.75" spans="1:4">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
+    <row r="9" ht="15.75" spans="1:4">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
+    <row r="10" ht="15.75" spans="1:4">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
+    <row r="11" ht="15.75" spans="1:4">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
+    <row r="12" ht="15.75" spans="1:4">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
+    <row r="13" ht="15.75" spans="1:4">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
+    <row r="14" ht="15.75" spans="1:4">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
+    <row r="15" ht="15.75" spans="1:4">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
+    <row r="16" ht="15.75" spans="1:4">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
+    <row r="17" ht="15.75" spans="1:4">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
+    <row r="18" ht="15.75" spans="1:4">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
+    <row r="19" ht="15.75" spans="1:4">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
+    <row r="20" ht="15.75" spans="1:4">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
+    <row r="21" ht="15.75" spans="1:4">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
+    <row r="22" ht="15.75" spans="1:4">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
+    <row r="23" ht="15.75" spans="1:4">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
+    <row r="24" ht="15.75" spans="1:4">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
+    <row r="25" ht="15.75" spans="1:4">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
+    <row r="26" ht="15.75" spans="1:4">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
+    <row r="27" ht="15.75" spans="1:4">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
+    <row r="28" ht="15.75" spans="1:4">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
+    <row r="29" ht="15.75" spans="1:4">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
+    <row r="30" ht="15.75" spans="1:4">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
+    <row r="31" ht="15.75" spans="1:4">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1">
+    <row r="32" ht="15.75" spans="1:4">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
+    <row r="33" ht="15.75" spans="1:4">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
+    <row r="34" ht="15.75" spans="1:4">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1">
+    <row r="35" ht="15.75" spans="1:4">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1">
+    <row r="36" ht="15.75" spans="1:4">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1">
+    <row r="37" ht="15.75" spans="1:4">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1">
+    <row r="38" ht="15.75" spans="1:4">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1">
+    <row r="39" ht="15.75" spans="1:4">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1">
+    <row r="40" ht="15.75" spans="1:4">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1">
+    <row r="41" ht="15.75" spans="1:4">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1">
+    <row r="42" ht="15.75" spans="1:4">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1">
+    <row r="43" ht="15.75" spans="1:4">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1">
+    <row r="44" ht="15.75" spans="1:4">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1">
+    <row r="45" ht="15.75" spans="1:4">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1">
+    <row r="46" ht="15.75" spans="1:4">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1">
+    <row r="47" ht="15.75" spans="1:4">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1">
+    <row r="48" ht="15.75" spans="1:4">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1">
+    <row r="49" ht="15.75" spans="1:4">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1">
+    <row r="50" ht="15.75" spans="1:4">
+      <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1">
+    <row r="51" ht="15.75" spans="1:4">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1">
+    <row r="52" ht="15.75" spans="1:4">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1">
+    <row r="53" ht="15.75" spans="1:4">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="1">
+    <row r="54" ht="15.75" spans="1:4">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1">
+    <row r="55" ht="15.75" spans="1:4">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="1">
+    <row r="56" ht="15.75" spans="1:4">
+      <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="1">
+    <row r="57" ht="15.75" spans="1:4">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="1">
+    <row r="58" ht="15.75" spans="1:4">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="1">
+    <row r="59" ht="15.75" spans="1:4">
+      <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="1">
+    <row r="60" ht="15.75" spans="1:4">
+      <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="1">
+    <row r="61" ht="15.75" spans="1:4">
+      <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="1">
+    <row r="62" ht="15.75" spans="1:4">
+      <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="1">
+    <row r="63" ht="15.75" spans="1:4">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="1">
+    <row r="64" ht="15.75" spans="1:4">
+      <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1">
+    <row r="65" ht="15.75" spans="1:4">
+      <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1">
+    <row r="66" ht="15.75" spans="1:4">
+      <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="1">
+    <row r="67" ht="15.75" spans="1:4">
+      <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="1">
+    <row r="68" ht="15.75" spans="1:4">
+      <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1">
+    <row r="69" ht="15.75" spans="1:4">
+      <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1">
+    <row r="70" ht="15.75" spans="1:4">
+      <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="1">
+    <row r="71" ht="15.75" spans="1:4">
+      <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="1">
+    <row r="72" ht="15.75" spans="1:4">
+      <c r="A72" s="4">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="1">
+    <row r="73" ht="15.75" spans="1:4">
+      <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="1">
+    <row r="74" ht="15.75" spans="1:4">
+      <c r="A74" s="4">
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="1">
+    <row r="75" ht="15.75" spans="1:4">
+      <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="1">
+    <row r="76" ht="15.75" spans="1:4">
+      <c r="A76" s="4">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="1">
+    <row r="77" ht="15.75" spans="1:4">
+      <c r="A77" s="4">
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="1">
+    <row r="78" ht="15.75" spans="1:4">
+      <c r="A78" s="4">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="1">
+    <row r="79" ht="15.75" spans="1:4">
+      <c r="A79" s="4">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="1">
+    <row r="80" ht="15.75" spans="1:4">
+      <c r="A80" s="4">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="1">
+    <row r="81" ht="15.75" spans="1:4">
+      <c r="A81" s="4">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="1">
+    <row r="82" ht="15.75" spans="1:4">
+      <c r="A82" s="4">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="1">
+    <row r="83" ht="15.75" spans="1:4">
+      <c r="A83" s="4">
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="1">
+    <row r="84" ht="15.75" spans="1:4">
+      <c r="A84" s="4">
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="1">
+    <row r="85" ht="15.75" spans="1:4">
+      <c r="A85" s="4">
         <v>84</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="1">
+    <row r="86" ht="15.75" spans="1:4">
+      <c r="A86" s="4">
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="1">
+    <row r="87" ht="15.75" spans="1:4">
+      <c r="A87" s="4">
         <v>86</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="1">
+    <row r="88" ht="15.75" spans="1:4">
+      <c r="A88" s="4">
         <v>87</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="1">
+    <row r="89" ht="15.75" spans="1:4">
+      <c r="A89" s="4">
         <v>88</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="1">
+    <row r="90" ht="15.75" spans="1:4">
+      <c r="A90" s="4">
         <v>89</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="1">
+    <row r="91" ht="15.75" spans="1:4">
+      <c r="A91" s="4">
         <v>90</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="1">
+    <row r="92" ht="15.75" spans="1:4">
+      <c r="A92" s="4">
         <v>91</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="1">
+    <row r="93" ht="15.75" spans="1:4">
+      <c r="A93" s="4">
         <v>92</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="1">
+    <row r="94" ht="15.75" spans="1:4">
+      <c r="A94" s="4">
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="1">
+    <row r="95" ht="15.75" spans="1:4">
+      <c r="A95" s="4">
         <v>94</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="1">
+    <row r="96" ht="15.75" spans="1:4">
+      <c r="A96" s="4">
         <v>95</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="1">
+    <row r="97" ht="15.75" spans="1:4">
+      <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="1">
+    <row r="98" ht="15.75" spans="1:4">
+      <c r="A98" s="4">
         <v>97</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="1">
+    <row r="99" ht="15.75" spans="1:4">
+      <c r="A99" s="4">
         <v>98</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="1">
+    <row r="100" ht="15.75" spans="1:4">
+      <c r="A100" s="4">
         <v>99</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="1">
+    <row r="101" ht="15.75" spans="1:4">
+      <c r="A101" s="4">
         <v>100</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="1">
+    <row r="102" ht="15.75" spans="1:4">
+      <c r="A102" s="4">
         <v>101</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="1">
+    <row r="103" ht="15.75" spans="1:4">
+      <c r="A103" s="4">
         <v>102</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="1">
+    <row r="104" ht="15.75" spans="1:4">
+      <c r="A104" s="4">
         <v>103</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="1">
+    <row r="105" ht="15.75" spans="1:4">
+      <c r="A105" s="4">
         <v>104</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="3" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="1">
+    <row r="106" ht="15.75" spans="1:4">
+      <c r="A106" s="4">
         <v>105</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="1">
+    <row r="107" ht="15.75" spans="1:4">
+      <c r="A107" s="4">
         <v>106</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="1">
+    <row r="108" ht="15.75" spans="1:4">
+      <c r="A108" s="4">
         <v>107</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="1">
+    <row r="109" ht="15.75" spans="1:4">
+      <c r="A109" s="4">
         <v>108</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="1">
+    <row r="110" ht="15.75" spans="1:4">
+      <c r="A110" s="4">
         <v>109</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="1">
+    <row r="111" ht="15.75" spans="1:4">
+      <c r="A111" s="4">
         <v>110</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="1">
+    <row r="112" ht="15.75" spans="1:4">
+      <c r="A112" s="4">
         <v>111</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="3" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="1">
+    <row r="113" ht="15.75" spans="1:4">
+      <c r="A113" s="4">
         <v>112</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="3" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="1">
+    <row r="114" ht="15.75" spans="1:4">
+      <c r="A114" s="4">
         <v>113</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="3" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="1">
+    <row r="115" ht="15.75" spans="1:4">
+      <c r="A115" s="4">
         <v>114</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="1">
+    <row r="116" ht="15.75" spans="1:4">
+      <c r="A116" s="4">
         <v>115</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="1">
+    <row r="117" ht="15.75" spans="1:4">
+      <c r="A117" s="4">
         <v>116</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="3" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="1">
+    <row r="118" ht="15.75" spans="1:4">
+      <c r="A118" s="4">
         <v>117</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="3" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="1">
+    <row r="119" ht="15.75" spans="1:4">
+      <c r="A119" s="4">
         <v>118</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="3" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="1">
+    <row r="120" ht="15.75" spans="1:4">
+      <c r="A120" s="4">
         <v>119</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="1">
+    <row r="121" ht="15.75" spans="1:4">
+      <c r="A121" s="4">
         <v>120</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="1">
+    <row r="122" ht="15.75" spans="1:4">
+      <c r="A122" s="4">
         <v>121</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="3" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="1">
+    <row r="123" ht="15.75" spans="1:4">
+      <c r="A123" s="4">
         <v>122</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="1">
+    <row r="124" ht="15.75" spans="1:4">
+      <c r="A124" s="4">
         <v>123</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="3" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="1">
+    <row r="125" ht="15.75" spans="1:4">
+      <c r="A125" s="4">
         <v>124</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="3" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="1">
+    <row r="126" ht="15.75" spans="1:4">
+      <c r="A126" s="4">
         <v>125</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="1">
+    <row r="127" ht="15.75" spans="1:4">
+      <c r="A127" s="4">
         <v>126</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="1">
+    <row r="128" ht="15.75" spans="1:4">
+      <c r="A128" s="4">
         <v>127</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="1">
+    <row r="129" ht="15.75" spans="1:4">
+      <c r="A129" s="4">
         <v>128</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="1">
+    <row r="130" ht="15.75" spans="1:4">
+      <c r="A130" s="4">
         <v>129</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="1">
+    <row r="131" ht="15.75" spans="1:4">
+      <c r="A131" s="4">
         <v>130</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="1">
+    <row r="132" ht="15.75" spans="1:4">
+      <c r="A132" s="4">
         <v>131</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="1">
+    <row r="133" ht="15.75" spans="1:4">
+      <c r="A133" s="4">
         <v>132</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="1">
+    <row r="134" ht="15.75" spans="1:4">
+      <c r="A134" s="4">
         <v>133</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="3" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="1">
+    <row r="135" ht="15.75" spans="1:4">
+      <c r="A135" s="4">
         <v>134</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="3" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="1">
+    <row r="136" ht="15.75" spans="1:4">
+      <c r="A136" s="4">
         <v>135</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="3" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="1">
+    <row r="137" ht="15.75" spans="1:4">
+      <c r="A137" s="4">
         <v>136</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D137" s="3" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="1">
+    <row r="138" ht="15.75" spans="1:4">
+      <c r="A138" s="4">
         <v>137</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="1">
+    <row r="139" ht="15.75" spans="1:4">
+      <c r="A139" s="4">
         <v>138</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D139" s="3" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="1">
+    <row r="140" ht="15.75" spans="1:4">
+      <c r="A140" s="4">
         <v>139</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D140" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="1">
+    <row r="141" ht="15.75" spans="1:4">
+      <c r="A141" s="4">
         <v>140</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D141" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="1">
+    <row r="142" ht="15.75" spans="1:4">
+      <c r="A142" s="4">
         <v>141</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" s="3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="1">
+    <row r="143" ht="15.75" spans="1:4">
+      <c r="A143" s="4">
         <v>142</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" s="3" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="1">
+    <row r="144" ht="15.75" spans="1:4">
+      <c r="A144" s="4">
         <v>143</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="3" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="1">
+    <row r="145" ht="15.75" spans="1:4">
+      <c r="A145" s="4">
         <v>144</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" s="3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="1">
+    <row r="146" ht="15.75" spans="1:4">
+      <c r="A146" s="4">
         <v>145</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D146" s="3" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="1">
+    <row r="147" ht="15.75" spans="1:4">
+      <c r="A147" s="4">
         <v>146</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D147" s="3" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="1">
+    <row r="148" ht="15.75" spans="1:4">
+      <c r="A148" s="4">
         <v>147</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" s="3" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="1">
+    <row r="149" ht="15.75" spans="1:4">
+      <c r="A149" s="4">
         <v>148</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="3" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="1">
+    <row r="150" ht="15.75" spans="1:4">
+      <c r="A150" s="4">
         <v>149</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="3" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="1">
+    <row r="151" ht="15.75" spans="1:4">
+      <c r="A151" s="4">
         <v>150</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="3" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="1">
+    <row r="152" ht="15.75" spans="1:4">
+      <c r="A152" s="4">
         <v>151</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="1">
+    <row r="153" ht="15.75" spans="1:4">
+      <c r="A153" s="4">
         <v>152</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="3" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="1">
+    <row r="154" ht="15.75" spans="1:4">
+      <c r="A154" s="4">
         <v>153</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D154" s="3" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="1">
+    <row r="155" ht="15.75" spans="1:4">
+      <c r="A155" s="4">
         <v>154</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D155" s="3" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="1">
+    <row r="156" ht="15.75" spans="1:4">
+      <c r="A156" s="4">
         <v>155</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" s="3" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="1">
+    <row r="157" ht="15.75" spans="1:4">
+      <c r="A157" s="4">
         <v>156</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="3" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="1">
+    <row r="158" ht="15.75" spans="1:4">
+      <c r="A158" s="4">
         <v>157</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D158" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="1">
+    <row r="159" ht="15.75" spans="1:4">
+      <c r="A159" s="4">
         <v>158</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="1">
+    <row r="160" ht="15.75" spans="1:4">
+      <c r="A160" s="4">
         <v>159</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D160" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="1">
+    <row r="161" ht="15.75" spans="1:4">
+      <c r="A161" s="4">
         <v>160</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="1">
+    <row r="162" ht="15.75" spans="1:4">
+      <c r="A162" s="4">
         <v>161</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D162" s="3" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="1">
+    <row r="163" ht="15.75" spans="1:4">
+      <c r="A163" s="4">
         <v>162</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D163" s="3" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="1">
+    <row r="164" ht="15.75" spans="1:4">
+      <c r="A164" s="4">
         <v>163</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C164" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D164" s="3" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="1">
+    <row r="165" ht="15.75" spans="1:4">
+      <c r="A165" s="4">
         <v>164</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D165" s="3" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="1">
+    <row r="166" ht="15.75" spans="1:4">
+      <c r="A166" s="4">
         <v>165</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D166" s="3" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="1">
+    <row r="167" ht="15.75" spans="1:4">
+      <c r="A167" s="4">
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
@@ -5830,754 +6576,754 @@
       <c r="C167" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D167" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="1">
+    <row r="168" ht="15.75" spans="1:4">
+      <c r="A168" s="4">
         <v>167</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B168" s="5" t="s">
         <v>502</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D168" s="3" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="1">
+    <row r="169" ht="15.75" spans="1:4">
+      <c r="A169" s="4">
         <v>168</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" s="5" t="s">
         <v>505</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D169" s="3" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="1">
+    <row r="170" ht="15.75" spans="1:4">
+      <c r="A170" s="4">
         <v>169</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" s="5" t="s">
         <v>508</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D170" s="3" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="1">
+    <row r="171" ht="15.75" spans="1:4">
+      <c r="A171" s="4">
         <v>170</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B171" s="5" t="s">
         <v>511</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D171" s="3" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="1">
+    <row r="172" ht="15.75" spans="1:4">
+      <c r="A172" s="4">
         <v>171</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" s="5" t="s">
         <v>514</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D172" s="3" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="1">
+    <row r="173" ht="15.75" spans="1:4">
+      <c r="A173" s="4">
         <v>172</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" s="5" t="s">
         <v>517</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D173" s="3" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="1">
+    <row r="174" ht="15.75" spans="1:4">
+      <c r="A174" s="4">
         <v>173</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="5" t="s">
         <v>520</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D174" s="3" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="1">
+    <row r="175" ht="15.75" spans="1:4">
+      <c r="A175" s="4">
         <v>174</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="5" t="s">
         <v>523</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D175" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="1">
+    <row r="176" ht="15.75" spans="1:4">
+      <c r="A176" s="4">
         <v>175</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="5" t="s">
         <v>526</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D176" s="3" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="1">
+    <row r="177" ht="15.75" spans="1:4">
+      <c r="A177" s="4">
         <v>176</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="5" t="s">
         <v>529</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D177" s="3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="1">
+    <row r="178" ht="15.75" spans="1:4">
+      <c r="A178" s="4">
         <v>177</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="5" t="s">
         <v>532</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D178" s="3" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="1">
+    <row r="179" ht="15.75" spans="1:4">
+      <c r="A179" s="4">
         <v>178</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D179" s="3" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="1">
+    <row r="180" ht="15.75" spans="1:4">
+      <c r="A180" s="4">
         <v>179</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" s="5" t="s">
         <v>538</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D180" s="3" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="1">
+    <row r="181" ht="15.75" spans="1:4">
+      <c r="A181" s="4">
         <v>180</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" s="5" t="s">
         <v>541</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D181" s="3" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="1">
+    <row r="182" ht="15.75" spans="1:4">
+      <c r="A182" s="4">
         <v>181</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="5" t="s">
         <v>544</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D182" s="3" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="1">
+    <row r="183" ht="15.75" spans="1:4">
+      <c r="A183" s="4">
         <v>182</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="5" t="s">
         <v>547</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D183" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="1">
+    <row r="184" ht="15.75" spans="1:4">
+      <c r="A184" s="4">
         <v>183</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" s="5" t="s">
         <v>550</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D184" s="3" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="1">
+    <row r="185" ht="15.75" spans="1:4">
+      <c r="A185" s="4">
         <v>184</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" s="5" t="s">
         <v>553</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D185" s="3" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="1">
+    <row r="186" ht="15.75" spans="1:4">
+      <c r="A186" s="4">
         <v>185</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="5" t="s">
         <v>556</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D186" s="3" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="1">
+    <row r="187" ht="15.75" spans="1:4">
+      <c r="A187" s="4">
         <v>186</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" s="5" t="s">
         <v>559</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D187" s="3" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="1">
+    <row r="188" ht="15.75" spans="1:4">
+      <c r="A188" s="4">
         <v>187</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="B188" s="5" t="s">
         <v>562</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D188" s="3" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="1">
+    <row r="189" ht="15.75" spans="1:4">
+      <c r="A189" s="4">
         <v>188</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="5" t="s">
         <v>106</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D189" s="3" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="1">
+    <row r="190" ht="15.75" spans="1:4">
+      <c r="A190" s="4">
         <v>189</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="D190" s="3" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="1">
+    <row r="191" ht="15.75" spans="1:4">
+      <c r="A191" s="4">
         <v>190</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="5" t="s">
         <v>570</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D191" s="3" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="1">
+    <row r="192" ht="15.75" spans="1:4">
+      <c r="A192" s="4">
         <v>191</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" s="5" t="s">
         <v>573</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D192" s="3" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="1">
+    <row r="193" ht="15.75" spans="1:4">
+      <c r="A193" s="4">
         <v>192</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" s="5" t="s">
         <v>576</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D193" s="3" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="1">
+    <row r="194" ht="15.75" spans="1:4">
+      <c r="A194" s="4">
         <v>193</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" s="5" t="s">
         <v>579</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D194" s="3" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="1">
+    <row r="195" ht="15.75" spans="1:4">
+      <c r="A195" s="4">
         <v>194</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B195" s="5" t="s">
         <v>582</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D195" s="3" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="1">
+    <row r="196" ht="15.75" spans="1:4">
+      <c r="A196" s="4">
         <v>195</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B196" s="5" t="s">
         <v>585</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D196" s="3" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="1">
+    <row r="197" ht="15.75" spans="1:4">
+      <c r="A197" s="4">
         <v>196</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B197" s="5" t="s">
         <v>588</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D197" s="3" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="1">
+    <row r="198" ht="15.75" spans="1:4">
+      <c r="A198" s="4">
         <v>197</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B198" s="5" t="s">
         <v>591</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="D198" s="3" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="1">
+    <row r="199" ht="15.75" spans="1:4">
+      <c r="A199" s="4">
         <v>198</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B199" s="5" t="s">
         <v>594</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D199" s="3" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="1">
+    <row r="200" ht="15.75" spans="1:4">
+      <c r="A200" s="4">
         <v>199</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B200" s="5" t="s">
         <v>597</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="D200" s="3" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="1">
+    <row r="201" ht="15.75" spans="1:4">
+      <c r="A201" s="4">
         <v>200</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B201" s="5" t="s">
         <v>600</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="D201" s="3" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="1">
+    <row r="202" ht="15.75" spans="1:4">
+      <c r="A202" s="4">
         <v>201</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B202" s="5" t="s">
         <v>603</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="D202" s="3" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="1">
+    <row r="203" ht="15.75" spans="1:4">
+      <c r="A203" s="4">
         <v>202</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B203" s="5" t="s">
         <v>606</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D203" s="3" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="1">
+    <row r="204" ht="15.75" spans="1:4">
+      <c r="A204" s="4">
         <v>203</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B204" s="5" t="s">
         <v>609</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="D204" s="3" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="1">
+    <row r="205" ht="15.75" spans="1:4">
+      <c r="A205" s="4">
         <v>204</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B205" s="5" t="s">
         <v>612</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="D205" s="3" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="1">
+    <row r="206" ht="15.75" spans="1:4">
+      <c r="A206" s="4">
         <v>205</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B206" s="5" t="s">
         <v>615</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="D206" s="3" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="1">
+    <row r="207" ht="15.75" spans="1:4">
+      <c r="A207" s="4">
         <v>206</v>
       </c>
-      <c r="B207" s="4" t="s">
+      <c r="B207" s="5" t="s">
         <v>618</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D207" s="3" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="1">
+    <row r="208" ht="15.75" spans="1:4">
+      <c r="A208" s="4">
         <v>207</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="B208" s="5" t="s">
         <v>621</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="D208" s="3" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="1">
+    <row r="209" ht="15.75" spans="1:4">
+      <c r="A209" s="4">
         <v>208</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="B209" s="5" t="s">
         <v>624</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="D209" s="3" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="1">
+    <row r="210" ht="15.75" spans="1:4">
+      <c r="A210" s="4">
         <v>209</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="B210" s="5" t="s">
         <v>627</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D210" s="3" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="1">
+    <row r="211" ht="15.75" spans="1:4">
+      <c r="A211" s="4">
         <v>210</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B211" s="5" t="s">
         <v>630</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D211" s="3" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="1">
+    <row r="212" ht="15.75" spans="1:4">
+      <c r="A212" s="4">
         <v>211</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B212" s="5" t="s">
         <v>633</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="D212" s="3" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="1">
+    <row r="213" ht="15.75" spans="1:4">
+      <c r="A213" s="4">
         <v>212</v>
       </c>
-      <c r="B213" s="4" t="s">
+      <c r="B213" s="5" t="s">
         <v>636</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="D213" s="3" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="1">
+    <row r="214" ht="15.75" spans="1:4">
+      <c r="A214" s="4">
         <v>213</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B214" s="5" t="s">
         <v>639</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="D214" s="3" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="1">
+    <row r="215" ht="15.75" spans="1:4">
+      <c r="A215" s="4">
         <v>214</v>
       </c>
-      <c r="B215" s="4" t="s">
+      <c r="B215" s="5" t="s">
         <v>642</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="D215" s="3" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="1">
+    <row r="216" ht="15.75" spans="1:4">
+      <c r="A216" s="4">
         <v>215</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B216" s="5" t="s">
         <v>645</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="D216" s="3" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="1">
+    <row r="217" ht="15.75" spans="1:4">
+      <c r="A217" s="4">
         <v>216</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B217" s="5" t="s">
         <v>648</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="D217" s="3" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="1">
+    <row r="218" ht="15.75" spans="1:4">
+      <c r="A218" s="4">
         <v>217</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="B218" s="5" t="s">
         <v>651</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="D218" s="3" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="1">
+    <row r="219" ht="15.75" spans="1:4">
+      <c r="A219" s="4">
         <v>218</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="B219" s="5" t="s">
         <v>654</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="D219" s="3" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="1">
+    <row r="220" ht="15.75" spans="1:4">
+      <c r="A220" s="4">
         <v>219</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="B220" s="5" t="s">
         <v>657</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="D220" s="3" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="1">
+    <row r="221" ht="15.75" spans="1:4">
+      <c r="A221" s="4">
         <v>220</v>
       </c>
       <c r="B221" s="5" t="s">
@@ -6586,110 +7332,110 @@
       <c r="C221" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="D221" s="3" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="1">
+    <row r="222" ht="15.75" spans="1:4">
+      <c r="A222" s="4">
         <v>221</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B222" s="5" t="s">
         <v>663</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="D222" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="1">
+    <row r="223" ht="15.75" spans="1:4">
+      <c r="A223" s="4">
         <v>222</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="B223" s="5" t="s">
         <v>666</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="D223" s="3" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="1">
+    <row r="224" ht="15.75" spans="1:4">
+      <c r="A224" s="4">
         <v>223</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="B224" s="5" t="s">
         <v>669</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="D224" s="3" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="1">
+    <row r="225" ht="15.75" spans="1:4">
+      <c r="A225" s="4">
         <v>224</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="B225" s="5" t="s">
         <v>672</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="D225" s="3" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="1">
+    <row r="226" ht="15.75" spans="1:4">
+      <c r="A226" s="4">
         <v>225</v>
       </c>
-      <c r="B226" s="4" t="s">
+      <c r="B226" s="5" t="s">
         <v>675</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="D226" s="1" t="s">
+      <c r="D226" s="3" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="1">
+    <row r="227" ht="15.75" spans="1:4">
+      <c r="A227" s="4">
         <v>226</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="B227" s="5" t="s">
         <v>678</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="D227" s="3" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="1">
+    <row r="228" ht="15.75" spans="1:4">
+      <c r="A228" s="4">
         <v>227</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="B228" s="5" t="s">
         <v>681</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="D228" s="3" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="1">
+    <row r="229" ht="15.75" spans="1:4">
+      <c r="A229" s="4">
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
@@ -6698,669 +7444,1959 @@
       <c r="C229" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="D229" s="3" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="1">
+    <row r="230" ht="15.75" spans="1:4">
+      <c r="A230" s="4">
         <v>229</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="B230" s="5" t="s">
         <v>687</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="D230" s="3" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="1">
+    <row r="231" ht="15.75" spans="1:4">
+      <c r="A231" s="4">
         <v>230</v>
       </c>
-      <c r="B231" s="4" t="s">
+      <c r="B231" s="5" t="s">
         <v>690</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="D231" s="3" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="1">
+    <row r="232" ht="15.75" spans="1:4">
+      <c r="A232" s="4">
         <v>231</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B232" s="5" t="s">
         <v>693</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="D232" s="3" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="1">
+    <row r="233" ht="15.75" spans="1:4">
+      <c r="A233" s="4">
         <v>232</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="B233" s="5" t="s">
         <v>696</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="D233" s="3" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="1">
+    <row r="234" ht="15.75" spans="1:4">
+      <c r="A234" s="4">
         <v>233</v>
       </c>
-      <c r="B234" s="4" t="s">
+      <c r="B234" s="5" t="s">
         <v>699</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="D234" s="3" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="1">
+    <row r="235" ht="15.75" spans="1:4">
+      <c r="A235" s="4">
         <v>234</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="B235" s="5" t="s">
         <v>702</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="D235" s="3" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="1">
+    <row r="236" ht="15.75" spans="1:4">
+      <c r="A236" s="4">
         <v>235</v>
       </c>
-      <c r="B236" s="4" t="s">
+      <c r="B236" s="5" t="s">
         <v>705</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="D236" s="1" t="s">
+      <c r="D236" s="3" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="1">
+    <row r="237" ht="15.75" spans="1:4">
+      <c r="A237" s="4">
         <v>236</v>
       </c>
-      <c r="B237" s="4" t="s">
+      <c r="B237" s="5" t="s">
         <v>708</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="D237" s="3" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="1">
+    <row r="238" ht="15.75" spans="1:4">
+      <c r="A238" s="4">
         <v>237</v>
       </c>
-      <c r="B238" s="4" t="s">
+      <c r="B238" s="5" t="s">
         <v>711</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="D238" s="3" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="1">
+    <row r="239" ht="15.75" spans="1:4">
+      <c r="A239" s="4">
         <v>238</v>
       </c>
-      <c r="B239" s="4" t="s">
+      <c r="B239" s="5" t="s">
         <v>714</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="D239" s="1" t="s">
+      <c r="D239" s="3" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="1">
+    <row r="240" ht="15.75" spans="1:4">
+      <c r="A240" s="4">
         <v>239</v>
       </c>
-      <c r="B240" s="4" t="s">
+      <c r="B240" s="5" t="s">
         <v>717</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="D240" s="3" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="1">
+    <row r="241" ht="15.75" spans="1:4">
+      <c r="A241" s="4">
         <v>240</v>
       </c>
-      <c r="B241" s="4" t="s">
+      <c r="B241" s="5" t="s">
         <v>720</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="D241" s="1" t="s">
+      <c r="D241" s="3" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="1">
+    <row r="242" ht="15.75" spans="1:4">
+      <c r="A242" s="4">
         <v>241</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="B242" s="5" t="s">
         <v>723</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="D242" s="3" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="1">
+    <row r="243" ht="15.75" spans="1:4">
+      <c r="A243" s="4">
         <v>242</v>
       </c>
-      <c r="B243" s="4" t="s">
+      <c r="B243" s="5" t="s">
         <v>726</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="D243" s="1" t="s">
+      <c r="D243" s="3" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="1">
+    <row r="244" ht="15.75" spans="1:4">
+      <c r="A244" s="4">
         <v>243</v>
       </c>
-      <c r="B244" s="4" t="s">
+      <c r="B244" s="5" t="s">
         <v>729</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="D244" s="3" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="1">
+    <row r="245" ht="15.75" spans="1:4">
+      <c r="A245" s="4">
         <v>244</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="B245" s="5" t="s">
         <v>732</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="D245" s="1" t="s">
+      <c r="D245" s="3" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
-      <c r="A246" s="1">
+    <row r="246" ht="15.75" spans="1:4">
+      <c r="A246" s="4">
         <v>245</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="B246" s="5" t="s">
         <v>735</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="D246" s="3" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="1">
+    <row r="247" ht="15.75" spans="1:4">
+      <c r="A247" s="4">
         <v>246</v>
       </c>
-      <c r="B247" s="4" t="s">
+      <c r="B247" s="5" t="s">
         <v>738</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="D247" s="1" t="s">
+      <c r="D247" s="3" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="1">
+    <row r="248" ht="15.75" spans="1:4">
+      <c r="A248" s="4">
         <v>247</v>
       </c>
-      <c r="B248" s="4" t="s">
+      <c r="B248" s="5" t="s">
         <v>579</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="D248" s="3" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
-      <c r="A249" s="1">
+    <row r="249" ht="15.75" spans="1:4">
+      <c r="A249" s="4">
         <v>248</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="B249" s="5" t="s">
         <v>742</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="D249" s="1" t="s">
+      <c r="D249" s="3" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="1">
+    <row r="250" ht="15.75" spans="1:4">
+      <c r="A250" s="4">
         <v>249</v>
       </c>
-      <c r="B250" s="4" t="s">
+      <c r="B250" s="5" t="s">
         <v>745</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="D250" s="1" t="s">
+      <c r="D250" s="3" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="1">
+    <row r="251" ht="15.75" spans="1:4">
+      <c r="A251" s="4">
         <v>250</v>
       </c>
-      <c r="B251" s="4" t="s">
+      <c r="B251" s="5" t="s">
         <v>748</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="D251" s="1" t="s">
+      <c r="D251" s="3" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
-      <c r="A252" s="1">
+    <row r="252" ht="15.75" spans="1:4">
+      <c r="A252" s="4">
         <v>251</v>
       </c>
-      <c r="B252" s="4" t="s">
+      <c r="B252" s="5" t="s">
         <v>579</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="D252" s="1" t="s">
+      <c r="D252" s="3" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="1">
+    <row r="253" ht="15.75" spans="1:4">
+      <c r="A253" s="4">
         <v>252</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="B253" s="5" t="s">
         <v>752</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="D253" s="1" t="s">
+      <c r="D253" s="3" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
-      <c r="A254" s="1">
+    <row r="254" ht="15.75" spans="1:4">
+      <c r="A254" s="4">
         <v>253</v>
       </c>
-      <c r="B254" s="4" t="s">
+      <c r="B254" s="5" t="s">
         <v>755</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="D254" s="1" t="s">
+      <c r="D254" s="3" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
-      <c r="A255" s="1">
+    <row r="255" ht="15.75" spans="1:4">
+      <c r="A255" s="4">
         <v>254</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="B255" s="5" t="s">
         <v>758</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="D255" s="1" t="s">
+      <c r="D255" s="3" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
-      <c r="A256" s="1">
+    <row r="256" ht="15.75" spans="1:4">
+      <c r="A256" s="4">
         <v>255</v>
       </c>
-      <c r="B256" s="4" t="s">
+      <c r="B256" s="5" t="s">
         <v>761</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="D256" s="1" t="s">
+      <c r="D256" s="3" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
-      <c r="A257" s="1">
+    <row r="257" ht="15.75" spans="1:4">
+      <c r="A257" s="4">
         <v>256</v>
       </c>
-      <c r="B257" s="6" t="s">
+      <c r="B257" s="5" t="s">
         <v>764</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="D257" s="1" t="s">
+      <c r="D257" s="3" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
-      <c r="A258" s="1">
+    <row r="258" ht="15.75" spans="1:4">
+      <c r="A258" s="4">
         <v>257</v>
       </c>
-      <c r="B258" s="7" t="s">
+      <c r="B258" s="5" t="s">
         <v>767</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="D258" s="1" t="s">
+      <c r="D258" s="3" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
-      <c r="A259" s="1">
+    <row r="259" ht="15.75" spans="1:4">
+      <c r="A259" s="4">
         <v>258</v>
       </c>
-      <c r="B259" s="4" t="s">
+      <c r="B259" s="5" t="s">
         <v>769</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="D259" s="1" t="s">
+      <c r="D259" s="3" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
-      <c r="A260" s="1">
+    <row r="260" ht="15.75" spans="1:4">
+      <c r="A260" s="4">
         <v>259</v>
       </c>
-      <c r="B260" s="4" t="s">
+      <c r="B260" s="5" t="s">
         <v>772</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="D260" s="1" t="s">
+      <c r="D260" s="3" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
-      <c r="A261" s="1">
+    <row r="261" ht="15.75" spans="1:4">
+      <c r="A261" s="4">
         <v>260</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="B261" s="5" t="s">
         <v>775</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="D261" s="1" t="s">
+      <c r="D261" s="3" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
-      <c r="A262" s="1">
+    <row r="262" ht="15.75" spans="1:4">
+      <c r="A262" s="4">
         <v>261</v>
       </c>
-      <c r="B262" s="4" t="s">
+      <c r="B262" s="5" t="s">
         <v>778</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="D262" s="1" t="s">
+      <c r="D262" s="3" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
-      <c r="A263" s="1">
+    <row r="263" ht="15.75" spans="1:4">
+      <c r="A263" s="4">
         <v>262</v>
       </c>
-      <c r="B263" s="4" t="s">
+      <c r="B263" s="5" t="s">
         <v>781</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="D263" s="1" t="s">
+      <c r="D263" s="3" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
-      <c r="A264" s="1">
+    <row r="264" ht="15.75" spans="1:4">
+      <c r="A264" s="4">
         <v>263</v>
       </c>
-      <c r="B264" s="4" t="s">
+      <c r="B264" s="5" t="s">
         <v>784</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="D264" s="1" t="s">
+      <c r="D264" s="3" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
-      <c r="A265" s="1">
+    <row r="265" ht="15.75" spans="1:4">
+      <c r="A265" s="4">
         <v>264</v>
       </c>
-      <c r="B265" s="4" t="s">
+      <c r="B265" s="5" t="s">
         <v>787</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="D265" s="1" t="s">
+      <c r="D265" s="3" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
-      <c r="A266" s="1">
+    <row r="266" ht="15.75" spans="1:4">
+      <c r="A266" s="4">
         <v>265</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="B266" s="5" t="s">
         <v>790</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="D266" s="1" t="s">
+      <c r="D266" s="3" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
-      <c r="A267" s="1">
+    <row r="267" ht="15.75" spans="1:4">
+      <c r="A267" s="4">
         <v>266</v>
       </c>
-      <c r="B267" s="6" t="s">
+      <c r="B267" s="5" t="s">
         <v>793</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="D267" s="1" t="s">
+      <c r="D267" s="3" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
-      <c r="A268" s="1">
+    <row r="268" ht="15.75" spans="1:4">
+      <c r="A268" s="4">
         <v>267</v>
       </c>
-      <c r="B268" s="4" t="s">
+      <c r="B268" s="5" t="s">
         <v>796</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="D268" s="1" t="s">
+      <c r="D268" s="3" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
-      <c r="A269" s="1">
+    <row r="269" ht="15.75" spans="1:4">
+      <c r="A269" s="4">
         <v>268</v>
       </c>
-      <c r="B269" s="4" t="s">
+      <c r="B269" s="5" t="s">
         <v>799</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="D269" s="1" t="s">
+      <c r="D269" s="3" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
-      <c r="A270" s="1">
+    <row r="270" ht="15.75" spans="1:4">
+      <c r="A270" s="4">
         <v>269</v>
       </c>
-      <c r="B270" s="4" t="s">
+      <c r="B270" s="5" t="s">
         <v>802</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="D270" s="1" t="s">
+      <c r="D270" s="3" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
-      <c r="A271" s="1">
+    <row r="271" ht="15.75" spans="1:4">
+      <c r="A271" s="4">
         <v>270</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="B271" s="5" t="s">
         <v>805</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="D271" s="1" t="s">
+      <c r="D271" s="3" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
-      <c r="A272" s="1">
+    <row r="272" ht="15.75" spans="1:4">
+      <c r="A272" s="4">
         <v>271</v>
       </c>
-      <c r="B272" s="4" t="s">
+      <c r="B272" s="5" t="s">
         <v>808</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="D272" s="1" t="s">
+      <c r="D272" s="3" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
-      <c r="A273" s="1">
+    <row r="273" ht="15.75" spans="1:4">
+      <c r="A273" s="4">
         <v>272</v>
       </c>
-      <c r="B273" s="4" t="s">
+      <c r="B273" s="5" t="s">
         <v>811</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="D273" s="1" t="s">
+      <c r="D273" s="3" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
-      <c r="A274" s="1">
+    <row r="274" ht="15.75" spans="1:4">
+      <c r="A274" s="4">
         <v>273</v>
       </c>
-      <c r="B274" s="4" t="s">
+      <c r="B274" s="5" t="s">
         <v>742</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="D274" s="1" t="s">
+      <c r="D274" s="3" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
-      <c r="A275" s="1">
+    <row r="275" ht="15.75" spans="1:4">
+      <c r="A275" s="4">
         <v>274</v>
       </c>
-      <c r="B275" s="4" t="s">
+      <c r="B275" s="5" t="s">
         <v>816</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="D275" s="8" t="s">
+      <c r="D275" s="3" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
-      <c r="A276" s="1">
+    <row r="276" ht="15.75" spans="1:4">
+      <c r="A276" s="4">
         <v>275</v>
       </c>
-      <c r="B276" s="4" t="s">
+      <c r="B276" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="C276" s="1" t="s">
+      <c r="C276" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="D276" s="1" t="s">
+      <c r="D276" s="3" t="s">
         <v>821</v>
       </c>
     </row>
+    <row r="277" ht="15.75" spans="1:4">
+      <c r="A277" s="4">
+        <v>276</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="278" ht="15.75" spans="1:4">
+      <c r="A278" s="4">
+        <v>277</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="279" ht="15.75" spans="1:4">
+      <c r="A279" s="4">
+        <v>278</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="280" ht="15.75" spans="1:4">
+      <c r="A280" s="4">
+        <v>279</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="D280" s="5" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="281" ht="15.75" spans="1:4">
+      <c r="A281" s="4">
+        <v>280</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="D281" s="5" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="282" ht="15.75" spans="1:4">
+      <c r="A282" s="4">
+        <v>281</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="283" ht="15.75" spans="1:4">
+      <c r="A283" s="4">
+        <v>282</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="D283" s="5" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="284" ht="15.75" spans="1:4">
+      <c r="A284" s="4">
+        <v>283</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="285" ht="15.75" spans="1:4">
+      <c r="A285" s="4">
+        <v>284</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="286" ht="15.75" spans="1:4">
+      <c r="A286" s="4">
+        <v>285</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="D286" s="5" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="287" ht="15.75" spans="1:4">
+      <c r="A287" s="4">
+        <v>286</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D287" s="5" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="288" ht="15.75" spans="1:4">
+      <c r="A288" s="4">
+        <v>287</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="D288" s="5" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="289" ht="15.75" spans="1:4">
+      <c r="A289" s="4">
+        <v>288</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="D289" s="5" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="290" ht="15.75" spans="1:4">
+      <c r="A290" s="4">
+        <v>289</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="D290" s="5" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="291" ht="15.75" spans="1:4">
+      <c r="A291" s="4">
+        <v>290</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="D291" s="5" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="292" ht="15.75" spans="1:4">
+      <c r="A292" s="4">
+        <v>291</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="D292" s="5" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="293" ht="15.75" spans="1:4">
+      <c r="A293" s="4">
+        <v>292</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="D293" s="5" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="294" ht="15.75" spans="1:4">
+      <c r="A294" s="4">
+        <v>293</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="D294" s="5" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="295" ht="15.75" spans="1:4">
+      <c r="A295" s="4">
+        <v>294</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="D295" s="5" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="296" ht="15.75" spans="1:4">
+      <c r="A296" s="4">
+        <v>295</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="297" ht="15.75" spans="1:4">
+      <c r="A297" s="4">
+        <v>296</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="D297" s="5" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="298" ht="15.75" spans="1:4">
+      <c r="A298" s="4">
+        <v>297</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="D298" s="5" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="299" ht="15.75" spans="1:4">
+      <c r="A299" s="4">
+        <v>298</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="D299" s="5" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="300" ht="15.75" spans="1:4">
+      <c r="A300" s="4">
+        <v>299</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="D300" s="5" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="301" ht="15.75" spans="1:4">
+      <c r="A301" s="4">
+        <v>300</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="D301" s="5" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="302" ht="15.75" spans="1:4">
+      <c r="A302" s="4">
+        <v>301</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="D302" s="5" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="303" ht="15.75" spans="1:4">
+      <c r="A303" s="4">
+        <v>302</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="D303" s="5" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="304" ht="15.75" spans="1:4">
+      <c r="A304" s="4">
+        <v>303</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="D304" s="5" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="305" ht="15.75" spans="1:4">
+      <c r="A305" s="4">
+        <v>304</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D305" s="5" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="306" ht="15.75" spans="1:4">
+      <c r="A306" s="4">
+        <v>305</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="D306" s="5" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="307" ht="15.75" spans="1:4">
+      <c r="A307" s="4">
+        <v>306</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="D307" s="5" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="308" ht="15.75" spans="1:4">
+      <c r="A308" s="4">
+        <v>307</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="D308" s="5" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="309" ht="15.75" spans="1:4">
+      <c r="A309" s="4">
+        <v>308</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="D309" s="5" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="310" ht="15.75" spans="1:4">
+      <c r="A310" s="4">
+        <v>309</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="D310" s="5" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="311" ht="15.75" spans="1:4">
+      <c r="A311" s="4">
+        <v>310</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="D311" s="5" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="312" ht="15.75" spans="1:4">
+      <c r="A312" s="4">
+        <v>311</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="D312" s="5" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="313" ht="15.75" spans="1:4">
+      <c r="A313" s="4">
+        <v>312</v>
+      </c>
+      <c r="B313" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="D313" s="5" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="314" ht="15.75" spans="1:4">
+      <c r="A314" s="4">
+        <v>313</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="D314" s="5" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="315" ht="15.75" spans="1:4">
+      <c r="A315" s="4">
+        <v>314</v>
+      </c>
+      <c r="B315" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="D315" s="5" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="316" ht="15.75" spans="1:4">
+      <c r="A316" s="4">
+        <v>315</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="D316" s="5" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="317" ht="15.75" spans="1:4">
+      <c r="A317" s="4">
+        <v>316</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="D317" s="5" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="318" ht="15.75" spans="1:4">
+      <c r="A318" s="4">
+        <v>317</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="D318" s="5" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="319" ht="15.75" spans="1:4">
+      <c r="A319" s="4">
+        <v>318</v>
+      </c>
+      <c r="B319" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="D319" s="5" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="320" ht="15.75" spans="1:4">
+      <c r="A320" s="4">
+        <v>319</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="D320" s="5" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="321" ht="15.75" spans="1:4">
+      <c r="A321" s="4">
+        <v>320</v>
+      </c>
+      <c r="B321" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="D321" s="5" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="322" ht="15.75" spans="1:4">
+      <c r="A322" s="4">
+        <v>321</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="D322" s="5" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="323" ht="15.75" spans="1:4">
+      <c r="A323" s="4">
+        <v>322</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="D323" s="5" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="324" ht="15.75" spans="1:4">
+      <c r="A324" s="4">
+        <v>323</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="D324" s="5" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="325" ht="15.75" spans="1:4">
+      <c r="A325" s="4">
+        <v>324</v>
+      </c>
+      <c r="B325" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="D325" s="5" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="326" ht="15.75" spans="1:4">
+      <c r="A326" s="4">
+        <v>325</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="D326" s="5" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="327" ht="15.75" spans="1:4">
+      <c r="A327" s="4">
+        <v>326</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="D327" s="5" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="328" ht="15.75" spans="1:4">
+      <c r="A328" s="4">
+        <v>327</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="D328" s="5" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="329" ht="15.75" spans="1:4">
+      <c r="A329" s="4">
+        <v>328</v>
+      </c>
+      <c r="B329" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="D329" s="5" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="330" ht="15.75" spans="1:4">
+      <c r="A330" s="4">
+        <v>329</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="D330" s="5" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="331" ht="15.75" spans="1:4">
+      <c r="A331" s="4">
+        <v>330</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="D331" s="5" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="332" ht="15.75" spans="1:4">
+      <c r="A332" s="4">
+        <v>331</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="D332" s="5" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="333" ht="15.75" spans="1:4">
+      <c r="A333" s="4">
+        <v>332</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="D333" s="5" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="334" ht="15.75" spans="1:4">
+      <c r="A334" s="4">
+        <v>333</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="D334" s="5" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="335" ht="15.75" spans="1:4">
+      <c r="A335" s="4">
+        <v>334</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="D335" s="5" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="336" ht="15.75" spans="1:4">
+      <c r="A336" s="4">
+        <v>335</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D336" s="5" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="337" ht="15.75" spans="1:4">
+      <c r="A337" s="4">
+        <v>336</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D337" s="5" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="338" ht="15.75" spans="1:4">
+      <c r="A338" s="4">
+        <v>337</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D338" s="5" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="339" ht="15.75" spans="1:4">
+      <c r="A339" s="4">
+        <v>338</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D339" s="5" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="340" ht="15.75" spans="1:4">
+      <c r="A340" s="4">
+        <v>339</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D340" s="5" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="341" ht="15.75" spans="1:4">
+      <c r="A341" s="4">
+        <v>340</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D341" s="5" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="342" ht="15.75" spans="1:4">
+      <c r="A342" s="4">
+        <v>341</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D342" s="5" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="343" ht="15.75" spans="1:4">
+      <c r="A343" s="4">
+        <v>342</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D343" s="5" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="344" ht="15.75" spans="1:4">
+      <c r="A344" s="4">
+        <v>343</v>
+      </c>
+      <c r="B344" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D344" s="5" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="345" ht="15.75" spans="1:4">
+      <c r="A345" s="4">
+        <v>344</v>
+      </c>
+      <c r="B345" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D345" s="5" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="346" ht="15.75" spans="1:4">
+      <c r="A346" s="4">
+        <v>345</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D346" s="5" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="347" ht="15.75" spans="1:4">
+      <c r="A347" s="4">
+        <v>346</v>
+      </c>
+      <c r="B347" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D347" s="5" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="348" ht="15.75" spans="1:4">
+      <c r="A348" s="4">
+        <v>347</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D348" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="349" ht="15.75" spans="1:4">
+      <c r="A349" s="4">
+        <v>348</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D349" s="5" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="350" ht="15.75" spans="1:4">
+      <c r="A350" s="4">
+        <v>349</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D350" s="5" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="351" ht="15.75" spans="1:4">
+      <c r="A351" s="4">
+        <v>350</v>
+      </c>
+      <c r="B351" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D351" s="5" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="352" ht="15.75" spans="1:4">
+      <c r="A352" s="4">
+        <v>351</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D352" s="5" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="353" ht="15.75" spans="1:4">
+      <c r="A353" s="4">
+        <v>352</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D353" s="5" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="354" ht="15.75" spans="1:4">
+      <c r="A354" s="4">
+        <v>353</v>
+      </c>
+      <c r="B354" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D354" s="5" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="355" ht="15.75" spans="1:4">
+      <c r="A355" s="4">
+        <v>354</v>
+      </c>
+      <c r="B355" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D355" s="5" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="356" ht="15.75" spans="1:4">
+      <c r="A356" s="4">
+        <v>355</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D356" s="5" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="357" ht="15.75" spans="1:4">
+      <c r="A357" s="4">
+        <v>356</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D357" s="5" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="358" ht="15.75" spans="1:4">
+      <c r="A358" s="4">
+        <v>357</v>
+      </c>
+      <c r="B358" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D358" s="5" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="359" ht="15.75" spans="1:4">
+      <c r="A359" s="4">
+        <v>358</v>
+      </c>
+      <c r="B359" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D359" s="5" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="360" ht="15.75" spans="1:4">
+      <c r="A360" s="4">
+        <v>359</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D360" s="5" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="361" ht="15.75" spans="1:4">
+      <c r="A361" s="4">
+        <v>360</v>
+      </c>
+      <c r="B361" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D361" s="5" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="362" ht="15.75" spans="1:4">
+      <c r="A362" s="4">
+        <v>361</v>
+      </c>
+      <c r="B362" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D362" s="5" t="s">
+        <v>1079</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D279" r:id="rId1" display="https://mbd.pub/o/bread/ZpqUkp5w" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqUkp5w"/>
+    <hyperlink ref="D280" r:id="rId2" display="https://mbd.pub/o/bread/ZpqUk5xp" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqUk5xp"/>
+    <hyperlink ref="D281" r:id="rId3" display="https://mbd.pub/o/bread/ZpqUk51y" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqUk51y"/>
+    <hyperlink ref="D282" r:id="rId4" display="https://mbd.pub/o/bread/ZpqUk59w" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqUk59w"/>
+    <hyperlink ref="D283" r:id="rId5" display="https://mbd.pub/o/bread/ZpqUlJ5p" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqUlJ5p"/>
+    <hyperlink ref="D285" r:id="rId6" display="https://mbd.pub/o/bread/ZpqUlZdy" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqUlZdy"/>
+    <hyperlink ref="D284" r:id="rId7" display="https://mbd.pub/o/bread/ZpqUlJ5s" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqUlJ5s"/>
+    <hyperlink ref="D286" r:id="rId8" display="https://mbd.pub/o/bread/ZpqUlZps" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqUlZps"/>
+    <hyperlink ref="D287" r:id="rId9" display="https://mbd.pub/o/bread/ZpqUlp1x" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqUlp1x"/>
+    <hyperlink ref="D288" r:id="rId10" display="https://mbd.pub/o/bread/ZpqUlp9r" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqUlp9r"/>
+    <hyperlink ref="D289" r:id="rId11" display="https://mbd.pub/o/bread/ZpqUl5dp" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqUl5dp"/>
+    <hyperlink ref="D290" r:id="rId12" display="https://mbd.pub/o/bread/ZpqUl5ds" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqUl5ds"/>
+    <hyperlink ref="D291" r:id="rId13" display="https://mbd.pub/o/bread/ZpqUl5dw" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqUl5dw"/>
+    <hyperlink ref="D292" r:id="rId14" display="https://mbd.pub/o/bread/ZpqUmJtu" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqUmJtu"/>
+    <hyperlink ref="D293" r:id="rId15" display="https://mbd.pub/o/bread/ZpqUmJxq" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqUmJxq"/>
+    <hyperlink ref="D294" r:id="rId16" display="https://mbd.pub/o/bread/ZpqUmJ1r" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqUmJ1r"/>
+    <hyperlink ref="D295" r:id="rId17" display="https://mbd.pub/o/bread/ZpqUmJ1y" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqUmJ1y"/>
+    <hyperlink ref="D296" r:id="rId18" display="https://mbd.pub/o/bread/ZpqUmJ5u" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqUmJ5u"/>
+    <hyperlink ref="D297" r:id="rId19" display="https://mbd.pub/o/bread/ZpqUmpdw" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqUmpdw"/>
+    <hyperlink ref="D298" r:id="rId20" display="https://mbd.pub/o/bread/ZpqUmphu" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqUmphu"/>
+    <hyperlink ref="D299" r:id="rId21" display="https://mbd.pub/o/bread/ZpqUmpls" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqUmpls"/>
+    <hyperlink ref="D300" r:id="rId22" display="https://mbd.pub/o/bread/ZpqUmptq" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqUmptq"/>
+    <hyperlink ref="D301" r:id="rId23" display="https://mbd.pub/o/bread/ZpqVkpZt" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqVkpZt"/>
+    <hyperlink ref="D302" r:id="rId24" display="https://mbd.pub/o/bread/ZpqVkplr" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqVkplr"/>
+    <hyperlink ref="D303" r:id="rId25" display="https://mbd.pub/o/bread/ZpqVkp9w" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqVkp9w"/>
+    <hyperlink ref="D304" r:id="rId26" display="https://mbd.pub/o/bread/ZpqVlJdx" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqVlJdx"/>
+    <hyperlink ref="D305" r:id="rId27" display="https://mbd.pub/o/bread/ZpqVlJlv" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqVlJlv"/>
+    <hyperlink ref="D306" r:id="rId28" display="https://mbd.pub/o/bread/ZpqVlJps" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqVlJps"/>
+    <hyperlink ref="D307" r:id="rId29" display="https://mbd.pub/o/bread/ZpqVlJ9u" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqVlJ9u"/>
+    <hyperlink ref="D308" r:id="rId30" display="https://mbd.pub/o/bread/ZpqVlZ9q" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqVlZ9q"/>
+    <hyperlink ref="D309" r:id="rId31" display="https://mbd.pub/o/bread/ZpqVlZ9t" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqVlZ9t"/>
+    <hyperlink ref="D310" r:id="rId32" display="https://mbd.pub/o/bread/ZpqVlZ9v" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqVlZ9v"/>
+    <hyperlink ref="D311" r:id="rId33" display="https://mbd.pub/o/bread/ZpqVlpdv" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqVlpdv"/>
+    <hyperlink ref="D312" r:id="rId34" display="https://mbd.pub/o/bread/ZpqVlphs" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqVlphs"/>
+    <hyperlink ref="D313" r:id="rId35" display="https://mbd.pub/o/bread/ZpqVlp5r" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqVlp5r"/>
+    <hyperlink ref="D314" r:id="rId36" display="https://mbd.pub/o/bread/ZpqVl5Zq" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqVl5Zq"/>
+    <hyperlink ref="D315" r:id="rId37" display="https://mbd.pub/o/bread/ZpqVl5Zy" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqVl5Zy"/>
+    <hyperlink ref="D316" r:id="rId38" display="https://mbd.pub/o/bread/ZpqVl5dr" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqVl5dr"/>
+    <hyperlink ref="D317" r:id="rId39" display="https://mbd.pub/o/bread/ZpqVl5dw" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqVl5dw"/>
+    <hyperlink ref="D318" r:id="rId40" display="https://mbd.pub/o/bread/ZpqVmZxx" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqVmZxx"/>
+    <hyperlink ref="D319" r:id="rId41" display="https://mbd.pub/o/bread/ZpqVmZ1y" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqVmZ1y"/>
+    <hyperlink ref="D320" r:id="rId42" display="https://mbd.pub/o/bread/ZpqVmZ9p" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqVmZ9p"/>
+    <hyperlink ref="D321" r:id="rId43" display="https://mbd.pub/o/bread/ZpqVmpZs" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqVmpZs"/>
+    <hyperlink ref="D322" r:id="rId44" display="https://mbd.pub/o/bread/ZpqVmpZx" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqVmpZx"/>
+    <hyperlink ref="D323" r:id="rId45" display="https://mbd.pub/o/bread/ZpqWlZhu" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqWlZhu"/>
+    <hyperlink ref="D324" r:id="rId46" display="https://mbd.pub/o/bread/ZpqWlZls" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqWlZls"/>
+    <hyperlink ref="D325" r:id="rId47" display="https://mbd.pub/o/bread/ZpqWlZlw" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqWlZlw"/>
+    <hyperlink ref="D326" r:id="rId48" display="https://mbd.pub/o/bread/ZpqWlZxr" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqWlZxr"/>
+    <hyperlink ref="D327" r:id="rId49" display="https://mbd.pub/o/bread/ZpqWlZxu" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqWlZxu"/>
+    <hyperlink ref="D328" r:id="rId50" display="https://mbd.pub/o/bread/ZpqWlZ1p" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqWlZ1p"/>
+    <hyperlink ref="D329" r:id="rId51" display="https://mbd.pub/o/bread/ZpqWmJxw" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqWmJxw"/>
+    <hyperlink ref="D330" r:id="rId52" display="https://mbd.pub/o/bread/ZpqXkppq" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqXkppq"/>
+    <hyperlink ref="D331" r:id="rId53" display="https://mbd.pub/o/bread/ZpqXkppy" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqXkppy"/>
+    <hyperlink ref="D332" r:id="rId54" display="https://mbd.pub/o/bread/ZpqXlplr" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqXlplr"/>
+    <hyperlink ref="D333" r:id="rId55" display="https://mbd.pub/o/bread/ZpqXl51s" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqXl51s"/>
+    <hyperlink ref="D334" r:id="rId56" display="https://mbd.pub/o/bread/ZpqXl59s" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqXl59s"/>
+    <hyperlink ref="D335" r:id="rId57" display="https://mbd.pub/o/bread/ZpqXl59x" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqXl59x"/>
+    <hyperlink ref="D336" r:id="rId58" display="https://mbd.pub/o/bread/ZpqXmJZp" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqXmJZp"/>
+    <hyperlink ref="D337" r:id="rId59" display="https://mbd.pub/o/bread/ZpqXmJty" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqXmJty"/>
+    <hyperlink ref="D338" r:id="rId60" display="https://mbd.pub/o/bread/ZpqXmJ5q" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqXmJ5q"/>
+    <hyperlink ref="D339" r:id="rId61" display="https://mbd.pub/o/bread/ZpqXm5Zy" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqXm5Zy"/>
+    <hyperlink ref="D340" r:id="rId62" display="https://mbd.pub/o/bread/ZpqXm5dt" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqXm5dt"/>
+    <hyperlink ref="D341" r:id="rId63" display="https://mbd.pub/o/bread/ZpqYl5ps" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqYl5ps"/>
+    <hyperlink ref="D342" r:id="rId64" display="https://mbd.pub/o/bread/ZpqYmZdu" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqYmZdu"/>
+    <hyperlink ref="D343" r:id="rId65" display="https://mbd.pub/o/bread/ZpqYmZlt" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqYmZlt"/>
+    <hyperlink ref="D345" r:id="rId66" display="https://mbd.pub/o/bread/ZpqYmptv" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqYmptv"/>
+    <hyperlink ref="D344" r:id="rId67" display="https://mbd.pub/o/bread/ZpqYmpdr" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqYmpdr"/>
+    <hyperlink ref="D346" r:id="rId68" display="https://mbd.pub/o/bread/ZpqYmp5s" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqYmp5s"/>
+    <hyperlink ref="D347" r:id="rId69" display="https://mbd.pub/o/bread/ZpqYm5hq" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqYm5hq"/>
+    <hyperlink ref="D348" r:id="rId70" display="https://mbd.pub/o/bread/ZpqYm5xw" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqYm5xw"/>
+    <hyperlink ref="D349" r:id="rId71" display="https://mbd.pub/o/bread/ZpqYm59q" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqYm59q"/>
+    <hyperlink ref="D350" r:id="rId72" display="https://mbd.pub/o/bread/ZpqZkplx" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqZkplx"/>
+    <hyperlink ref="D351" r:id="rId73" display="https://mbd.pub/o/bread/ZpqZkppt" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqZkppt"/>
+    <hyperlink ref="D352" r:id="rId74" display="https://mbd.pub/o/bread/ZpqZkpts" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqZkpts"/>
+    <hyperlink ref="D353" r:id="rId75" display="https://mbd.pub/o/bread/ZpqZkp1q" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqZkp1q"/>
+    <hyperlink ref="D354" r:id="rId76" display="https://mbd.pub/o/bread/ZpqZmZZp" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqZmZZp"/>
+    <hyperlink ref="D355" r:id="rId77" display="https://mbd.pub/o/bread/ZpqZmZxy" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqZmZxy"/>
+    <hyperlink ref="D356" r:id="rId78" display="https://mbd.pub/o/bread/ZpqZmZ1u" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqZmZ1u"/>
+    <hyperlink ref="D357" r:id="rId79" display="https://mbd.pub/o/bread/ZpqZmZ1w" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqZmZ1w"/>
+    <hyperlink ref="D358" r:id="rId80" display="https://mbd.pub/o/bread/ZpqZmply" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqZmply"/>
+    <hyperlink ref="D359" r:id="rId81" display="https://mbd.pub/o/bread/ZpqZmptp" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqZmptp"/>
+    <hyperlink ref="D360" r:id="rId82" display="https://mbd.pub/o/bread/ZpqZmpxt" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqZmpxt"/>
+    <hyperlink ref="D361" r:id="rId83" display="https://mbd.pub/o/bread/ZpqZm5ty" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqZm5ty"/>
+    <hyperlink ref="D362" r:id="rId84" display="https://mbd.pub/o/bread/ZpqalJ9s" tooltip="https://gitee.com/link?target=https://mbd.pub/o/bread/ZpqalJ9s"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -7376,7 +9412,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7393,7 +9429,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
